--- a/vyhodnotenie_siete/kandidatske_siete/kandidatska_siet_Brezno.xlsx
+++ b/vyhodnotenie_siete/kandidatske_siete/kandidatska_siet_Brezno.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\olve\mzsr\OSN-public\vyhodnotenie_siete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\olve\mzsr\OSN-public\vyhodnotenie_siete\kandidatske_siete\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sieť" sheetId="1" r:id="rId1"/>
@@ -1314,9 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:OI113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -74705,6 +74703,140 @@
     </row>
   </sheetData>
   <mergeCells count="158">
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="BR1:BV1"/>
+    <mergeCell ref="IA1:IE1"/>
+    <mergeCell ref="EJ1:EN1"/>
+    <mergeCell ref="CV1:CZ1"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="DZ2:ED2"/>
+    <mergeCell ref="EJ2:EN2"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="BC1:BG1"/>
+    <mergeCell ref="DF2:DJ2"/>
+    <mergeCell ref="BW1:CA1"/>
+    <mergeCell ref="NU2:NY2"/>
+    <mergeCell ref="IU1:IY1"/>
+    <mergeCell ref="EY2:FC2"/>
+    <mergeCell ref="MV1:MZ1"/>
+    <mergeCell ref="FN1:FR1"/>
+    <mergeCell ref="FS2:FW2"/>
+    <mergeCell ref="JT2:JX2"/>
+    <mergeCell ref="GC2:GG2"/>
+    <mergeCell ref="KI1:KM1"/>
+    <mergeCell ref="KD2:KH2"/>
+    <mergeCell ref="KN2:KR2"/>
+    <mergeCell ref="LR1:LV1"/>
+    <mergeCell ref="IP2:IT2"/>
+    <mergeCell ref="HB1:HF1"/>
+    <mergeCell ref="LC1:LG1"/>
+    <mergeCell ref="HL1:HP1"/>
+    <mergeCell ref="NF2:NJ2"/>
+    <mergeCell ref="LW1:MA1"/>
+    <mergeCell ref="JE2:JI2"/>
+    <mergeCell ref="JY1:KC1"/>
+    <mergeCell ref="GH1:GL1"/>
+    <mergeCell ref="IF1:IJ1"/>
+    <mergeCell ref="IA2:IE2"/>
+    <mergeCell ref="FS1:FW1"/>
+    <mergeCell ref="NK2:NO2"/>
+    <mergeCell ref="MB1:MF1"/>
+    <mergeCell ref="EO2:ES2"/>
+    <mergeCell ref="DF1:DJ1"/>
+    <mergeCell ref="KX2:LB2"/>
+    <mergeCell ref="JJ2:JN2"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="IU2:IY2"/>
+    <mergeCell ref="BH1:BL1"/>
+    <mergeCell ref="MV2:MZ2"/>
+    <mergeCell ref="DK2:DO2"/>
+    <mergeCell ref="GW2:HA2"/>
+    <mergeCell ref="EE1:EI1"/>
+    <mergeCell ref="GH2:GL2"/>
+    <mergeCell ref="LM2:LQ2"/>
+    <mergeCell ref="FX2:GB2"/>
+    <mergeCell ref="LW2:MA2"/>
+    <mergeCell ref="KN1:KR1"/>
+    <mergeCell ref="EO1:ES1"/>
+    <mergeCell ref="BM2:BQ2"/>
+    <mergeCell ref="JJ1:JN1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="HG1:HK1"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="LR2:LV2"/>
+    <mergeCell ref="MG1:MK1"/>
+    <mergeCell ref="GR1:GV1"/>
+    <mergeCell ref="MB2:MF2"/>
+    <mergeCell ref="ML2:MP2"/>
+    <mergeCell ref="CV2:CZ2"/>
+    <mergeCell ref="KS1:KW1"/>
+    <mergeCell ref="KD1:KH1"/>
+    <mergeCell ref="DP2:DT2"/>
+    <mergeCell ref="ET1:EX1"/>
+    <mergeCell ref="HL2:HP2"/>
+    <mergeCell ref="BR2:BV2"/>
+    <mergeCell ref="JO1:JS1"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="IZ1:JD1"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="MG2:MK2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="IF2:IJ2"/>
+    <mergeCell ref="CQ2:CU2"/>
+    <mergeCell ref="IZ2:JD2"/>
+    <mergeCell ref="JT1:JX1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="OE1:OI1"/>
+    <mergeCell ref="EY1:FC1"/>
+    <mergeCell ref="KI2:KM2"/>
+    <mergeCell ref="KS2:KW2"/>
+    <mergeCell ref="FI1:FM1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="LC2:LG2"/>
+    <mergeCell ref="BW2:CA2"/>
+    <mergeCell ref="CG2:CK2"/>
+    <mergeCell ref="DA1:DE1"/>
+    <mergeCell ref="DU1:DY1"/>
+    <mergeCell ref="HQ1:HU1"/>
+    <mergeCell ref="NZ1:OD1"/>
+    <mergeCell ref="BM1:BQ1"/>
+    <mergeCell ref="OE2:OI2"/>
+    <mergeCell ref="EE2:EI2"/>
+    <mergeCell ref="NZ2:OD2"/>
+    <mergeCell ref="HQ2:HU2"/>
+    <mergeCell ref="FX1:GB1"/>
+    <mergeCell ref="NA1:NE1"/>
+    <mergeCell ref="NK1:NO1"/>
+    <mergeCell ref="NU1:NY1"/>
+    <mergeCell ref="NF1:NJ1"/>
+    <mergeCell ref="NP1:NT1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="HV2:HZ2"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="GC1:GG1"/>
+    <mergeCell ref="IK1:IO1"/>
+    <mergeCell ref="ML1:MP1"/>
+    <mergeCell ref="MQ2:MU2"/>
+    <mergeCell ref="DA2:DE2"/>
+    <mergeCell ref="FI2:FM2"/>
+    <mergeCell ref="DP1:DT1"/>
+    <mergeCell ref="DU2:DY2"/>
+    <mergeCell ref="GM1:GQ1"/>
+    <mergeCell ref="LH1:LL1"/>
+    <mergeCell ref="CB1:CF1"/>
+    <mergeCell ref="CL1:CP1"/>
+    <mergeCell ref="JE1:JI1"/>
+    <mergeCell ref="GM2:GQ2"/>
+    <mergeCell ref="FD1:FH1"/>
+    <mergeCell ref="HG2:HK2"/>
+    <mergeCell ref="LH2:LL2"/>
+    <mergeCell ref="CB2:CF2"/>
+    <mergeCell ref="CL2:CP2"/>
+    <mergeCell ref="DZ1:ED1"/>
+    <mergeCell ref="AX2:BB2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="HV1:HZ1"/>
     <mergeCell ref="BH2:BL2"/>
@@ -74729,140 +74861,6 @@
     <mergeCell ref="GR2:GV2"/>
     <mergeCell ref="KX1:LB1"/>
     <mergeCell ref="NA2:NE2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="HV2:HZ2"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="GC1:GG1"/>
-    <mergeCell ref="IK1:IO1"/>
-    <mergeCell ref="ML1:MP1"/>
-    <mergeCell ref="MQ2:MU2"/>
-    <mergeCell ref="DA2:DE2"/>
-    <mergeCell ref="FI2:FM2"/>
-    <mergeCell ref="DP1:DT1"/>
-    <mergeCell ref="DU2:DY2"/>
-    <mergeCell ref="GM1:GQ1"/>
-    <mergeCell ref="LH1:LL1"/>
-    <mergeCell ref="CB1:CF1"/>
-    <mergeCell ref="CL1:CP1"/>
-    <mergeCell ref="JE1:JI1"/>
-    <mergeCell ref="GM2:GQ2"/>
-    <mergeCell ref="FD1:FH1"/>
-    <mergeCell ref="HG2:HK2"/>
-    <mergeCell ref="LH2:LL2"/>
-    <mergeCell ref="CB2:CF2"/>
-    <mergeCell ref="CL2:CP2"/>
-    <mergeCell ref="DZ1:ED1"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="OE1:OI1"/>
-    <mergeCell ref="EY1:FC1"/>
-    <mergeCell ref="KI2:KM2"/>
-    <mergeCell ref="KS2:KW2"/>
-    <mergeCell ref="FI1:FM1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="LC2:LG2"/>
-    <mergeCell ref="BW2:CA2"/>
-    <mergeCell ref="CG2:CK2"/>
-    <mergeCell ref="DA1:DE1"/>
-    <mergeCell ref="DU1:DY1"/>
-    <mergeCell ref="HQ1:HU1"/>
-    <mergeCell ref="NZ1:OD1"/>
-    <mergeCell ref="BM1:BQ1"/>
-    <mergeCell ref="OE2:OI2"/>
-    <mergeCell ref="EE2:EI2"/>
-    <mergeCell ref="NZ2:OD2"/>
-    <mergeCell ref="HQ2:HU2"/>
-    <mergeCell ref="FX1:GB1"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="LR2:LV2"/>
-    <mergeCell ref="MG1:MK1"/>
-    <mergeCell ref="GR1:GV1"/>
-    <mergeCell ref="MB2:MF2"/>
-    <mergeCell ref="ML2:MP2"/>
-    <mergeCell ref="CV2:CZ2"/>
-    <mergeCell ref="KS1:KW1"/>
-    <mergeCell ref="KD1:KH1"/>
-    <mergeCell ref="DP2:DT2"/>
-    <mergeCell ref="ET1:EX1"/>
-    <mergeCell ref="HL2:HP2"/>
-    <mergeCell ref="BR2:BV2"/>
-    <mergeCell ref="JO1:JS1"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="IZ1:JD1"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="NA1:NE1"/>
-    <mergeCell ref="MG2:MK2"/>
-    <mergeCell ref="NK1:NO1"/>
-    <mergeCell ref="NU1:NY1"/>
-    <mergeCell ref="NF1:NJ1"/>
-    <mergeCell ref="NP1:NT1"/>
-    <mergeCell ref="NK2:NO2"/>
-    <mergeCell ref="MB1:MF1"/>
-    <mergeCell ref="EO2:ES2"/>
-    <mergeCell ref="DF1:DJ1"/>
-    <mergeCell ref="KX2:LB2"/>
-    <mergeCell ref="JJ2:JN2"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="IU2:IY2"/>
-    <mergeCell ref="BH1:BL1"/>
-    <mergeCell ref="MV2:MZ2"/>
-    <mergeCell ref="DK2:DO2"/>
-    <mergeCell ref="GW2:HA2"/>
-    <mergeCell ref="EE1:EI1"/>
-    <mergeCell ref="GH2:GL2"/>
-    <mergeCell ref="LM2:LQ2"/>
-    <mergeCell ref="FX2:GB2"/>
-    <mergeCell ref="LW2:MA2"/>
-    <mergeCell ref="KN1:KR1"/>
-    <mergeCell ref="EO1:ES1"/>
-    <mergeCell ref="BM2:BQ2"/>
-    <mergeCell ref="JJ1:JN1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="HG1:HK1"/>
-    <mergeCell ref="NU2:NY2"/>
-    <mergeCell ref="IU1:IY1"/>
-    <mergeCell ref="EY2:FC2"/>
-    <mergeCell ref="MV1:MZ1"/>
-    <mergeCell ref="FN1:FR1"/>
-    <mergeCell ref="FS2:FW2"/>
-    <mergeCell ref="JT2:JX2"/>
-    <mergeCell ref="GC2:GG2"/>
-    <mergeCell ref="KI1:KM1"/>
-    <mergeCell ref="KD2:KH2"/>
-    <mergeCell ref="KN2:KR2"/>
-    <mergeCell ref="LR1:LV1"/>
-    <mergeCell ref="IP2:IT2"/>
-    <mergeCell ref="HB1:HF1"/>
-    <mergeCell ref="LC1:LG1"/>
-    <mergeCell ref="HL1:HP1"/>
-    <mergeCell ref="NF2:NJ2"/>
-    <mergeCell ref="LW1:MA1"/>
-    <mergeCell ref="JE2:JI2"/>
-    <mergeCell ref="JY1:KC1"/>
-    <mergeCell ref="GH1:GL1"/>
-    <mergeCell ref="IF1:IJ1"/>
-    <mergeCell ref="IA2:IE2"/>
-    <mergeCell ref="FS1:FW1"/>
-    <mergeCell ref="IF2:IJ2"/>
-    <mergeCell ref="CQ2:CU2"/>
-    <mergeCell ref="IZ2:JD2"/>
-    <mergeCell ref="JT1:JX1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="BR1:BV1"/>
-    <mergeCell ref="IA1:IE1"/>
-    <mergeCell ref="EJ1:EN1"/>
-    <mergeCell ref="CV1:CZ1"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="DZ2:ED2"/>
-    <mergeCell ref="EJ2:EN2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="BC1:BG1"/>
-    <mergeCell ref="DF2:DJ2"/>
-    <mergeCell ref="BW1:CA1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -74872,7 +74870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:OF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -81038,76 +81036,70 @@
     </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="NM2:NQ2"/>
-    <mergeCell ref="NR2:NV2"/>
-    <mergeCell ref="NW2:OA2"/>
-    <mergeCell ref="OB2:OF2"/>
-    <mergeCell ref="MI2:MM2"/>
-    <mergeCell ref="MN2:MR2"/>
-    <mergeCell ref="MS2:MW2"/>
-    <mergeCell ref="MX2:NB2"/>
-    <mergeCell ref="NC2:NG2"/>
-    <mergeCell ref="NH2:NL2"/>
-    <mergeCell ref="LE2:LI2"/>
-    <mergeCell ref="LJ2:LN2"/>
-    <mergeCell ref="LO2:LS2"/>
-    <mergeCell ref="LT2:LX2"/>
-    <mergeCell ref="LY2:MC2"/>
-    <mergeCell ref="MD2:MH2"/>
-    <mergeCell ref="KA2:KE2"/>
-    <mergeCell ref="KF2:KJ2"/>
-    <mergeCell ref="KK2:KO2"/>
-    <mergeCell ref="KP2:KT2"/>
-    <mergeCell ref="KU2:KY2"/>
-    <mergeCell ref="KZ2:LD2"/>
-    <mergeCell ref="IW2:JA2"/>
-    <mergeCell ref="JB2:JF2"/>
-    <mergeCell ref="JG2:JK2"/>
-    <mergeCell ref="JL2:JP2"/>
-    <mergeCell ref="JQ2:JU2"/>
-    <mergeCell ref="JV2:JZ2"/>
-    <mergeCell ref="HS2:HW2"/>
-    <mergeCell ref="HX2:IB2"/>
-    <mergeCell ref="IC2:IG2"/>
-    <mergeCell ref="IH2:IL2"/>
-    <mergeCell ref="IM2:IQ2"/>
-    <mergeCell ref="IR2:IV2"/>
-    <mergeCell ref="GO2:GS2"/>
-    <mergeCell ref="GT2:GX2"/>
-    <mergeCell ref="GY2:HC2"/>
-    <mergeCell ref="HD2:HH2"/>
-    <mergeCell ref="HI2:HM2"/>
-    <mergeCell ref="HN2:HR2"/>
-    <mergeCell ref="FK2:FO2"/>
-    <mergeCell ref="FP2:FT2"/>
-    <mergeCell ref="FU2:FY2"/>
-    <mergeCell ref="FZ2:GD2"/>
-    <mergeCell ref="GE2:GI2"/>
-    <mergeCell ref="GJ2:GN2"/>
-    <mergeCell ref="EG2:EK2"/>
-    <mergeCell ref="EL2:EP2"/>
-    <mergeCell ref="EQ2:EU2"/>
-    <mergeCell ref="EV2:EZ2"/>
-    <mergeCell ref="FA2:FE2"/>
-    <mergeCell ref="FF2:FJ2"/>
-    <mergeCell ref="DC2:DG2"/>
-    <mergeCell ref="DH2:DL2"/>
-    <mergeCell ref="DM2:DQ2"/>
-    <mergeCell ref="DR2:DV2"/>
-    <mergeCell ref="DW2:EA2"/>
-    <mergeCell ref="EB2:EF2"/>
-    <mergeCell ref="BY2:CC2"/>
-    <mergeCell ref="CD2:CH2"/>
-    <mergeCell ref="CI2:CM2"/>
-    <mergeCell ref="CN2:CR2"/>
-    <mergeCell ref="CS2:CW2"/>
-    <mergeCell ref="CX2:DB2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="BJ2:BN2"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="BJ1:BN1"/>
+    <mergeCell ref="BO1:BS1"/>
+    <mergeCell ref="BT1:BX1"/>
+    <mergeCell ref="BY1:CC1"/>
+    <mergeCell ref="CD1:CH1"/>
+    <mergeCell ref="CI1:CM1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="BE1:BI1"/>
+    <mergeCell ref="DR1:DV1"/>
+    <mergeCell ref="DW1:EA1"/>
+    <mergeCell ref="EB1:EF1"/>
+    <mergeCell ref="EG1:EK1"/>
+    <mergeCell ref="EL1:EP1"/>
+    <mergeCell ref="EQ1:EU1"/>
+    <mergeCell ref="CN1:CR1"/>
+    <mergeCell ref="CS1:CW1"/>
+    <mergeCell ref="CX1:DB1"/>
+    <mergeCell ref="DC1:DG1"/>
+    <mergeCell ref="DH1:DL1"/>
+    <mergeCell ref="DM1:DQ1"/>
+    <mergeCell ref="FZ1:GD1"/>
+    <mergeCell ref="GE1:GI1"/>
+    <mergeCell ref="GJ1:GN1"/>
+    <mergeCell ref="GO1:GS1"/>
+    <mergeCell ref="GT1:GX1"/>
+    <mergeCell ref="GY1:HC1"/>
+    <mergeCell ref="EV1:EZ1"/>
+    <mergeCell ref="FA1:FE1"/>
+    <mergeCell ref="FF1:FJ1"/>
+    <mergeCell ref="FK1:FO1"/>
+    <mergeCell ref="FP1:FT1"/>
+    <mergeCell ref="FU1:FY1"/>
+    <mergeCell ref="IH1:IL1"/>
+    <mergeCell ref="IM1:IQ1"/>
+    <mergeCell ref="IR1:IV1"/>
+    <mergeCell ref="IW1:JA1"/>
+    <mergeCell ref="JB1:JF1"/>
+    <mergeCell ref="JG1:JK1"/>
+    <mergeCell ref="HD1:HH1"/>
+    <mergeCell ref="HI1:HM1"/>
+    <mergeCell ref="HN1:HR1"/>
+    <mergeCell ref="HS1:HW1"/>
+    <mergeCell ref="HX1:IB1"/>
+    <mergeCell ref="IC1:IG1"/>
+    <mergeCell ref="KZ1:LD1"/>
+    <mergeCell ref="LE1:LI1"/>
+    <mergeCell ref="LJ1:LN1"/>
+    <mergeCell ref="LO1:LS1"/>
+    <mergeCell ref="JL1:JP1"/>
+    <mergeCell ref="JQ1:JU1"/>
+    <mergeCell ref="JV1:JZ1"/>
+    <mergeCell ref="KA1:KE1"/>
+    <mergeCell ref="KF1:KJ1"/>
+    <mergeCell ref="KK1:KO1"/>
     <mergeCell ref="OB1:OF1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
@@ -81132,70 +81124,76 @@
     <mergeCell ref="MS1:MW1"/>
     <mergeCell ref="KP1:KT1"/>
     <mergeCell ref="KU1:KY1"/>
-    <mergeCell ref="KZ1:LD1"/>
-    <mergeCell ref="LE1:LI1"/>
-    <mergeCell ref="LJ1:LN1"/>
-    <mergeCell ref="LO1:LS1"/>
-    <mergeCell ref="JL1:JP1"/>
-    <mergeCell ref="JQ1:JU1"/>
-    <mergeCell ref="JV1:JZ1"/>
-    <mergeCell ref="KA1:KE1"/>
-    <mergeCell ref="KF1:KJ1"/>
-    <mergeCell ref="KK1:KO1"/>
-    <mergeCell ref="IH1:IL1"/>
-    <mergeCell ref="IM1:IQ1"/>
-    <mergeCell ref="IR1:IV1"/>
-    <mergeCell ref="IW1:JA1"/>
-    <mergeCell ref="JB1:JF1"/>
-    <mergeCell ref="JG1:JK1"/>
-    <mergeCell ref="HD1:HH1"/>
-    <mergeCell ref="HI1:HM1"/>
-    <mergeCell ref="HN1:HR1"/>
-    <mergeCell ref="HS1:HW1"/>
-    <mergeCell ref="HX1:IB1"/>
-    <mergeCell ref="IC1:IG1"/>
-    <mergeCell ref="FZ1:GD1"/>
-    <mergeCell ref="GE1:GI1"/>
-    <mergeCell ref="GJ1:GN1"/>
-    <mergeCell ref="GO1:GS1"/>
-    <mergeCell ref="GT1:GX1"/>
-    <mergeCell ref="GY1:HC1"/>
-    <mergeCell ref="EV1:EZ1"/>
-    <mergeCell ref="FA1:FE1"/>
-    <mergeCell ref="FF1:FJ1"/>
-    <mergeCell ref="FK1:FO1"/>
-    <mergeCell ref="FP1:FT1"/>
-    <mergeCell ref="FU1:FY1"/>
-    <mergeCell ref="DR1:DV1"/>
-    <mergeCell ref="DW1:EA1"/>
-    <mergeCell ref="EB1:EF1"/>
-    <mergeCell ref="EG1:EK1"/>
-    <mergeCell ref="EL1:EP1"/>
-    <mergeCell ref="EQ1:EU1"/>
-    <mergeCell ref="CN1:CR1"/>
-    <mergeCell ref="CS1:CW1"/>
-    <mergeCell ref="CX1:DB1"/>
-    <mergeCell ref="DC1:DG1"/>
-    <mergeCell ref="DH1:DL1"/>
-    <mergeCell ref="DM1:DQ1"/>
-    <mergeCell ref="BJ1:BN1"/>
-    <mergeCell ref="BO1:BS1"/>
-    <mergeCell ref="BT1:BX1"/>
-    <mergeCell ref="BY1:CC1"/>
-    <mergeCell ref="CD1:CH1"/>
-    <mergeCell ref="CI1:CM1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="BE1:BI1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="BY2:CC2"/>
+    <mergeCell ref="CD2:CH2"/>
+    <mergeCell ref="CI2:CM2"/>
+    <mergeCell ref="CN2:CR2"/>
+    <mergeCell ref="CS2:CW2"/>
+    <mergeCell ref="CX2:DB2"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="BJ2:BN2"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="EG2:EK2"/>
+    <mergeCell ref="EL2:EP2"/>
+    <mergeCell ref="EQ2:EU2"/>
+    <mergeCell ref="EV2:EZ2"/>
+    <mergeCell ref="FA2:FE2"/>
+    <mergeCell ref="FF2:FJ2"/>
+    <mergeCell ref="DC2:DG2"/>
+    <mergeCell ref="DH2:DL2"/>
+    <mergeCell ref="DM2:DQ2"/>
+    <mergeCell ref="DR2:DV2"/>
+    <mergeCell ref="DW2:EA2"/>
+    <mergeCell ref="EB2:EF2"/>
+    <mergeCell ref="GO2:GS2"/>
+    <mergeCell ref="GT2:GX2"/>
+    <mergeCell ref="GY2:HC2"/>
+    <mergeCell ref="HD2:HH2"/>
+    <mergeCell ref="HI2:HM2"/>
+    <mergeCell ref="HN2:HR2"/>
+    <mergeCell ref="FK2:FO2"/>
+    <mergeCell ref="FP2:FT2"/>
+    <mergeCell ref="FU2:FY2"/>
+    <mergeCell ref="FZ2:GD2"/>
+    <mergeCell ref="GE2:GI2"/>
+    <mergeCell ref="GJ2:GN2"/>
+    <mergeCell ref="IW2:JA2"/>
+    <mergeCell ref="JB2:JF2"/>
+    <mergeCell ref="JG2:JK2"/>
+    <mergeCell ref="JL2:JP2"/>
+    <mergeCell ref="JQ2:JU2"/>
+    <mergeCell ref="JV2:JZ2"/>
+    <mergeCell ref="HS2:HW2"/>
+    <mergeCell ref="HX2:IB2"/>
+    <mergeCell ref="IC2:IG2"/>
+    <mergeCell ref="IH2:IL2"/>
+    <mergeCell ref="IM2:IQ2"/>
+    <mergeCell ref="IR2:IV2"/>
+    <mergeCell ref="LE2:LI2"/>
+    <mergeCell ref="LJ2:LN2"/>
+    <mergeCell ref="LO2:LS2"/>
+    <mergeCell ref="LT2:LX2"/>
+    <mergeCell ref="LY2:MC2"/>
+    <mergeCell ref="MD2:MH2"/>
+    <mergeCell ref="KA2:KE2"/>
+    <mergeCell ref="KF2:KJ2"/>
+    <mergeCell ref="KK2:KO2"/>
+    <mergeCell ref="KP2:KT2"/>
+    <mergeCell ref="KU2:KY2"/>
+    <mergeCell ref="KZ2:LD2"/>
+    <mergeCell ref="NM2:NQ2"/>
+    <mergeCell ref="NR2:NV2"/>
+    <mergeCell ref="NW2:OA2"/>
+    <mergeCell ref="OB2:OF2"/>
+    <mergeCell ref="MI2:MM2"/>
+    <mergeCell ref="MN2:MR2"/>
+    <mergeCell ref="MS2:MW2"/>
+    <mergeCell ref="MX2:NB2"/>
+    <mergeCell ref="NC2:NG2"/>
+    <mergeCell ref="NH2:NL2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
